--- a/Library/SmokeSanity_ExecutionResult_MPHV2.1.9.xlsx
+++ b/Library/SmokeSanity_ExecutionResult_MPHV2.1.9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -788,7 +788,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1057,9 @@
         <v>34</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1149,9 @@
         <v>41</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>12</v>
       </c>

--- a/Library/SmokeSanity_ExecutionResult_MPHV2.1.9.xlsx
+++ b/Library/SmokeSanity_ExecutionResult_MPHV2.1.9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33816" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="34752" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Reports\TC007DoctorSummaryReport.py</t>
+  </si>
+  <si>
+    <t>EMR-4794</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -283,6 +295,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +801,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,9 +1069,11 @@
       <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>12</v>
